--- a/raw_data/EPA task 10 items_26Feb18.xlsx
+++ b/raw_data/EPA task 10 items_26Feb18.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayau\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZSTANFIE\ONEDRI~1\Profile\DOCUME~1\MobaXterm\slash\FTPRemoteFiles\5\1\zstanfie@v2626umcth038.rtord.epa.gov\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0EA1CF5-7C7E-49B9-92C1-3FC0A52AC290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="22995" windowHeight="11565"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cotton clothing" sheetId="5" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="355">
   <si>
     <t>VO5 Extra Body Shampoo</t>
   </si>
@@ -564,12 +565,6 @@
   </si>
   <si>
     <t>047213566589</t>
-  </si>
-  <si>
-    <t>System ID</t>
-  </si>
-  <si>
-    <t>Customer ID (Material ID)</t>
   </si>
   <si>
     <t xml:space="preserve">Among the roses blue </t>
@@ -1100,11 +1095,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00000000000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1194,7 +1189,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1209,21 +1204,6 @@
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -1272,19 +1252,6 @@
       </top>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1390,30 +1357,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1443,7 +1386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1486,48 +1429,42 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1545,7 +1482,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1556,19 +1493,19 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1603,7 +1540,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1655,26 +1592,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1770,6 +1701,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1805,6 +1753,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1980,17 +1945,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="41.85546875" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
@@ -2001,15 +1966,15 @@
     <col min="10" max="11" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
-        <v>290</v>
-      </c>
-      <c r="G1" s="45" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
+      <c r="A1" s="43" t="s">
+        <v>288</v>
+      </c>
+      <c r="G1" s="43" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="15" t="s">
         <v>78</v>
       </c>
@@ -2042,7 +2007,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="15" customFormat="1">
       <c r="A3" s="18">
         <v>627357</v>
       </c>
@@ -2052,7 +2017,7 @@
       <c r="C3" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="43">
+      <c r="D3" s="41">
         <v>43139</v>
       </c>
       <c r="E3" s="15" t="s">
@@ -2062,19 +2027,19 @@
         <v>627846</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="J3" s="43">
+        <v>300</v>
+      </c>
+      <c r="J3" s="41">
         <v>43150</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="15" customFormat="1">
       <c r="A4" s="18">
         <v>627358</v>
       </c>
@@ -2084,7 +2049,7 @@
       <c r="C4" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="43">
+      <c r="D4" s="41">
         <v>43139</v>
       </c>
       <c r="E4" s="15" t="s">
@@ -2093,20 +2058,20 @@
       <c r="G4" s="18">
         <v>627840</v>
       </c>
-      <c r="H4" s="51" t="s">
-        <v>251</v>
+      <c r="H4" s="49" t="s">
+        <v>249</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="J4" s="43">
+        <v>301</v>
+      </c>
+      <c r="J4" s="41">
         <v>43150</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="15" customFormat="1">
       <c r="A5" s="18">
         <v>627346</v>
       </c>
@@ -2116,7 +2081,7 @@
       <c r="C5" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="43">
+      <c r="D5" s="41">
         <v>43139</v>
       </c>
       <c r="E5" s="15" t="s">
@@ -2125,20 +2090,20 @@
       <c r="G5" s="18">
         <v>627839</v>
       </c>
-      <c r="H5" s="59" t="s">
-        <v>252</v>
+      <c r="H5" s="57" t="s">
+        <v>250</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="J5" s="43">
+        <v>302</v>
+      </c>
+      <c r="J5" s="41">
         <v>43150</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="15" customFormat="1">
       <c r="A6" s="18">
         <v>627345</v>
       </c>
@@ -2148,7 +2113,7 @@
       <c r="C6" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D6" s="41">
         <v>43139</v>
       </c>
       <c r="E6" s="15" t="s">
@@ -2163,14 +2128,14 @@
       <c r="I6" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="J6" s="43">
+      <c r="J6" s="41">
         <v>43142</v>
       </c>
       <c r="K6" s="15" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="15" customFormat="1">
       <c r="A7" s="18">
         <v>627344</v>
       </c>
@@ -2180,7 +2145,7 @@
       <c r="C7" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="D7" s="43">
+      <c r="D7" s="41">
         <v>43139</v>
       </c>
       <c r="E7" s="15" t="s">
@@ -2195,14 +2160,14 @@
       <c r="I7" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="J7" s="43">
+      <c r="J7" s="41">
         <v>43139</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="15" customFormat="1">
       <c r="A8" s="18">
         <v>627355</v>
       </c>
@@ -2212,7 +2177,7 @@
       <c r="C8" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="43">
+      <c r="D8" s="41">
         <v>43139</v>
       </c>
       <c r="E8" s="15" t="s">
@@ -2227,14 +2192,14 @@
       <c r="I8" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="J8" s="43">
+      <c r="J8" s="41">
         <v>43139</v>
       </c>
       <c r="K8" s="15" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="15" customFormat="1">
       <c r="A9" s="18">
         <v>627438</v>
       </c>
@@ -2244,7 +2209,7 @@
       <c r="C9" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="D9" s="43">
+      <c r="D9" s="41">
         <v>43142</v>
       </c>
       <c r="E9" s="15" t="s">
@@ -2259,24 +2224,24 @@
       <c r="I9" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="J9" s="43">
+      <c r="J9" s="41">
         <v>43142</v>
       </c>
       <c r="K9" s="15" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="15" customFormat="1">
       <c r="A10" s="18">
         <v>627838</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="D10" s="43">
+        <v>297</v>
+      </c>
+      <c r="D10" s="41">
         <v>43142</v>
       </c>
       <c r="E10" s="15" t="s">
@@ -2286,29 +2251,29 @@
         <v>627837</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="I10" s="50" t="s">
-        <v>305</v>
-      </c>
-      <c r="J10" s="43">
+        <v>246</v>
+      </c>
+      <c r="I10" s="48" t="s">
+        <v>303</v>
+      </c>
+      <c r="J10" s="41">
         <v>43142</v>
       </c>
       <c r="K10" s="15" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="15" customFormat="1">
       <c r="A11" s="18">
         <v>627848</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="D11" s="43">
+        <v>298</v>
+      </c>
+      <c r="D11" s="41">
         <v>43142</v>
       </c>
       <c r="E11" s="15" t="s">
@@ -2318,67 +2283,67 @@
         <v>627847</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="I11" s="50" t="s">
-        <v>306</v>
-      </c>
-      <c r="J11" s="43">
+        <v>248</v>
+      </c>
+      <c r="I11" s="48" t="s">
+        <v>304</v>
+      </c>
+      <c r="J11" s="41">
         <v>43142</v>
       </c>
       <c r="K11" s="15" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="15" customFormat="1">
       <c r="A12" s="18">
         <v>628178</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="D12" s="43">
+        <v>299</v>
+      </c>
+      <c r="D12" s="41">
         <v>43153</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G12" s="18">
         <v>628177</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="I12" s="50" t="s">
-        <v>307</v>
-      </c>
-      <c r="J12" s="43">
+        <v>295</v>
+      </c>
+      <c r="I12" s="48" t="s">
+        <v>305</v>
+      </c>
+      <c r="J12" s="41">
         <v>43153</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="B14" s="11"/>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="B15" s="11"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="B16" s="11"/>
       <c r="H16" s="4"/>
     </row>
   </sheetData>
-  <sortState ref="H2:H28">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H2:H28">
     <sortCondition ref="H2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2387,7 +2352,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2397,7 +2362,7 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="41.85546875" customWidth="1"/>
@@ -2414,15 +2379,15 @@
     <col min="13" max="13" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
-        <v>234</v>
-      </c>
-      <c r="H1" s="44" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
+      <c r="A1" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="10" t="s">
         <v>78</v>
       </c>
@@ -2459,11 +2424,11 @@
       <c r="M2" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="N2" s="86" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N2" s="84" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="4">
         <v>627206</v>
       </c>
@@ -2476,35 +2441,35 @@
       <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="40">
         <v>43138</v>
       </c>
       <c r="F3" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="60">
+      <c r="H3" s="58">
         <v>627361</v>
       </c>
-      <c r="I3" s="53" t="s">
+      <c r="I3" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="J3" s="61" t="s">
+      <c r="J3" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="K3" s="60" t="s">
+      <c r="K3" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="L3" s="62">
+      <c r="L3" s="60">
         <v>43139</v>
       </c>
-      <c r="M3" s="53" t="s">
+      <c r="M3" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="N3" s="46" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N3" s="44" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="4">
         <v>627207</v>
       </c>
@@ -2517,35 +2482,35 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="40">
         <v>43138</v>
       </c>
       <c r="F4" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="60">
+      <c r="H4" s="58">
         <v>627362</v>
       </c>
-      <c r="I4" s="53" t="s">
+      <c r="I4" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="J4" s="61" t="s">
+      <c r="J4" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="K4" s="60" t="s">
+      <c r="K4" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="L4" s="62">
+      <c r="L4" s="60">
         <v>43139</v>
       </c>
-      <c r="M4" s="53" t="s">
+      <c r="M4" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="N4" s="46" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N4" s="44" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="4">
         <v>627195</v>
       </c>
@@ -2558,33 +2523,33 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="40">
         <v>43138</v>
       </c>
       <c r="F5" t="s">
         <v>73</v>
       </c>
-      <c r="H5" s="60">
+      <c r="H5" s="58">
         <v>627440</v>
       </c>
-      <c r="I5" s="53" t="s">
+      <c r="I5" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="63" t="s">
+      <c r="J5" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="53" t="s">
+      <c r="K5" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="L5" s="62">
+      <c r="L5" s="60">
         <v>43142</v>
       </c>
-      <c r="M5" s="53" t="s">
+      <c r="M5" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="N5" s="46"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N5" s="44"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="4">
         <v>627204</v>
       </c>
@@ -2597,33 +2562,33 @@
       <c r="D6" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="40">
         <v>43138</v>
       </c>
       <c r="F6" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="60">
+      <c r="H6" s="58">
         <v>627359</v>
       </c>
-      <c r="I6" s="53" t="s">
+      <c r="I6" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="J6" s="61" t="s">
+      <c r="J6" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="60" t="s">
+      <c r="K6" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="L6" s="62">
+      <c r="L6" s="60">
         <v>43139</v>
       </c>
-      <c r="M6" s="53" t="s">
+      <c r="M6" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="N6" s="46"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N6" s="44"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="4">
         <v>627205</v>
       </c>
@@ -2636,33 +2601,33 @@
       <c r="D7" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="40">
         <v>43138</v>
       </c>
       <c r="F7" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="60">
+      <c r="H7" s="58">
         <v>627360</v>
       </c>
-      <c r="I7" s="53" t="s">
+      <c r="I7" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="J7" s="61" t="s">
+      <c r="J7" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="K7" s="60" t="s">
+      <c r="K7" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="L7" s="62">
+      <c r="L7" s="60">
         <v>43139</v>
       </c>
-      <c r="M7" s="53" t="s">
+      <c r="M7" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="N7" s="46"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N7" s="44"/>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="4">
         <v>627203</v>
       </c>
@@ -2675,33 +2640,33 @@
       <c r="D8" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="40">
         <v>43138</v>
       </c>
       <c r="F8" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="60">
+      <c r="H8" s="58">
         <v>628175</v>
       </c>
-      <c r="I8" s="53" t="s">
+      <c r="I8" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="J8" s="64" t="s">
+      <c r="J8" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="60" t="s">
-        <v>293</v>
-      </c>
-      <c r="L8" s="62">
+      <c r="K8" s="58" t="s">
+        <v>291</v>
+      </c>
+      <c r="L8" s="60">
         <v>43153</v>
       </c>
-      <c r="M8" s="53" t="s">
-        <v>255</v>
-      </c>
-      <c r="N8" s="46"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M8" s="51" t="s">
+        <v>253</v>
+      </c>
+      <c r="N8" s="44"/>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="4">
         <v>627185</v>
       </c>
@@ -2714,39 +2679,39 @@
       <c r="D9" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="40">
         <v>43138</v>
       </c>
       <c r="F9" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="60">
+      <c r="H9" s="58">
         <v>627349</v>
       </c>
-      <c r="I9" s="48" t="s">
+      <c r="I9" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="J9" s="61" t="s">
+      <c r="J9" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="K9" s="60" t="s">
+      <c r="K9" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="L9" s="62">
+      <c r="L9" s="60">
         <v>43139</v>
       </c>
-      <c r="M9" s="53" t="s">
+      <c r="M9" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="N9" s="46" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N9" s="44" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="14">
         <v>627350</v>
       </c>
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="72" t="s">
         <v>76</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -2755,39 +2720,39 @@
       <c r="D10" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="40">
         <v>43139</v>
       </c>
       <c r="F10" t="s">
         <v>100</v>
       </c>
-      <c r="H10" s="60">
+      <c r="H10" s="58">
         <v>627441</v>
       </c>
-      <c r="I10" s="65" t="s">
+      <c r="I10" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="J10" s="61" t="s">
+      <c r="J10" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="K10" s="63" t="s">
+      <c r="K10" s="61" t="s">
         <v>170</v>
       </c>
-      <c r="L10" s="62">
+      <c r="L10" s="60">
         <v>43142</v>
       </c>
-      <c r="M10" s="53" t="s">
+      <c r="M10" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="N10" s="46" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N10" s="44" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="14">
         <v>627342</v>
       </c>
-      <c r="B11" s="75" t="s">
+      <c r="B11" s="73" t="s">
         <v>103</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -2796,39 +2761,39 @@
       <c r="D11" t="s">
         <v>104</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="40">
         <v>43139</v>
       </c>
       <c r="F11" t="s">
         <v>100</v>
       </c>
-      <c r="H11" s="60">
+      <c r="H11" s="58">
         <v>627341</v>
       </c>
-      <c r="I11" s="66" t="s">
+      <c r="I11" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="J11" s="67" t="s">
+      <c r="J11" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="K11" s="60">
+      <c r="K11" s="58">
         <v>1800285</v>
       </c>
-      <c r="L11" s="62">
+      <c r="L11" s="60">
         <v>43139</v>
       </c>
-      <c r="M11" s="53" t="s">
+      <c r="M11" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="N11" s="46" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N11" s="44" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="14">
         <v>627347</v>
       </c>
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="72" t="s">
         <v>115</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -2837,33 +2802,33 @@
       <c r="D12" t="s">
         <v>116</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="40">
         <v>43139</v>
       </c>
       <c r="F12" t="s">
         <v>100</v>
       </c>
-      <c r="H12" s="68">
+      <c r="H12" s="66">
         <v>628174</v>
       </c>
-      <c r="I12" s="65" t="s">
+      <c r="I12" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="J12" s="69" t="s">
+      <c r="J12" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="K12" s="53" t="s">
-        <v>282</v>
-      </c>
-      <c r="L12" s="62">
+      <c r="K12" s="51" t="s">
+        <v>280</v>
+      </c>
+      <c r="L12" s="60">
         <v>43151</v>
       </c>
-      <c r="M12" s="53" t="s">
-        <v>283</v>
-      </c>
-      <c r="N12" s="46"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M12" s="51" t="s">
+        <v>281</v>
+      </c>
+      <c r="N12" s="44"/>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="4">
         <v>627429</v>
       </c>
@@ -2876,37 +2841,37 @@
       <c r="D13" t="s">
         <v>137</v>
       </c>
-      <c r="E13" s="42">
+      <c r="E13" s="40">
         <v>43142</v>
       </c>
       <c r="F13" t="s">
         <v>135</v>
       </c>
-      <c r="H13" s="60">
+      <c r="H13" s="58">
         <v>627900</v>
       </c>
-      <c r="I13" s="53" t="s">
+      <c r="I13" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="J13" s="63" t="s">
+      <c r="J13" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="K13" s="53" t="s">
-        <v>256</v>
-      </c>
-      <c r="L13" s="62">
+      <c r="K13" s="51" t="s">
+        <v>254</v>
+      </c>
+      <c r="L13" s="60">
         <v>43151</v>
       </c>
-      <c r="M13" s="53" t="s">
-        <v>255</v>
-      </c>
-      <c r="N13" s="46"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M13" s="51" t="s">
+        <v>253</v>
+      </c>
+      <c r="N13" s="44"/>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="4">
         <v>627431</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="35" t="s">
         <v>139</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -2915,35 +2880,35 @@
       <c r="D14" t="s">
         <v>140</v>
       </c>
-      <c r="E14" s="42">
+      <c r="E14" s="40">
         <v>43142</v>
       </c>
       <c r="F14" t="s">
         <v>135</v>
       </c>
-      <c r="H14" s="60">
+      <c r="H14" s="58">
         <v>627685</v>
       </c>
-      <c r="I14" s="70" t="s">
-        <v>223</v>
-      </c>
-      <c r="J14" s="63" t="s">
+      <c r="I14" s="68" t="s">
+        <v>221</v>
+      </c>
+      <c r="J14" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="K14" s="53" t="s">
+      <c r="K14" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="L14" s="62">
+      <c r="L14" s="60">
         <v>43144</v>
       </c>
-      <c r="M14" s="53" t="s">
+      <c r="M14" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="N14" s="46" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N14" s="44" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="4">
         <v>627435</v>
       </c>
@@ -2956,32 +2921,32 @@
       <c r="D15" t="s">
         <v>144</v>
       </c>
-      <c r="E15" s="42">
+      <c r="E15" s="40">
         <v>43142</v>
       </c>
       <c r="F15" t="s">
         <v>135</v>
       </c>
-      <c r="H15" s="60">
+      <c r="H15" s="58">
         <v>627905</v>
       </c>
-      <c r="I15" s="53" t="s">
+      <c r="I15" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="J15" s="63" t="s">
+      <c r="J15" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="K15" s="61" t="s">
-        <v>266</v>
-      </c>
-      <c r="L15" s="62">
+      <c r="K15" s="59" t="s">
+        <v>264</v>
+      </c>
+      <c r="L15" s="60">
         <v>43151</v>
       </c>
-      <c r="M15" s="53" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M15" s="51" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="4">
         <v>627436</v>
       </c>
@@ -2994,32 +2959,32 @@
       <c r="D16" t="s">
         <v>147</v>
       </c>
-      <c r="E16" s="42">
+      <c r="E16" s="40">
         <v>43142</v>
       </c>
       <c r="F16" t="s">
         <v>135</v>
       </c>
-      <c r="H16" s="60">
+      <c r="H16" s="58">
         <v>627907</v>
       </c>
-      <c r="I16" s="53" t="s">
+      <c r="I16" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="J16" s="63" t="s">
+      <c r="J16" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="K16" s="53" t="s">
-        <v>261</v>
-      </c>
-      <c r="L16" s="62">
+      <c r="K16" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="L16" s="60">
         <v>43151</v>
       </c>
-      <c r="M16" s="53" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M16" s="51" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="4">
         <v>627444</v>
       </c>
@@ -3032,32 +2997,32 @@
       <c r="D17" t="s">
         <v>153</v>
       </c>
-      <c r="E17" s="42">
+      <c r="E17" s="40">
         <v>43142</v>
       </c>
       <c r="F17" t="s">
         <v>135</v>
       </c>
-      <c r="H17" s="60">
+      <c r="H17" s="58">
         <v>627911</v>
       </c>
-      <c r="I17" s="53" t="s">
+      <c r="I17" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="J17" s="63" t="s">
+      <c r="J17" s="61" t="s">
         <v>152</v>
       </c>
-      <c r="K17" s="53" t="s">
-        <v>263</v>
-      </c>
-      <c r="L17" s="62">
+      <c r="K17" s="51" t="s">
+        <v>261</v>
+      </c>
+      <c r="L17" s="60">
         <v>43151</v>
       </c>
-      <c r="M17" s="53" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M17" s="51" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="4">
         <v>627443</v>
       </c>
@@ -3070,32 +3035,32 @@
       <c r="D18" t="s">
         <v>156</v>
       </c>
-      <c r="E18" s="42">
+      <c r="E18" s="40">
         <v>43142</v>
       </c>
       <c r="F18" t="s">
         <v>135</v>
       </c>
-      <c r="H18" s="60">
+      <c r="H18" s="58">
         <v>627910</v>
       </c>
-      <c r="I18" s="53" t="s">
+      <c r="I18" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="J18" s="63" t="s">
+      <c r="J18" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="K18" s="53" t="s">
-        <v>258</v>
-      </c>
-      <c r="L18" s="62">
+      <c r="K18" s="51" t="s">
+        <v>256</v>
+      </c>
+      <c r="L18" s="60">
         <v>43151</v>
       </c>
-      <c r="M18" s="53" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M18" s="51" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="4">
         <v>627442</v>
       </c>
@@ -3108,32 +3073,32 @@
       <c r="D19" t="s">
         <v>159</v>
       </c>
-      <c r="E19" s="42">
+      <c r="E19" s="40">
         <v>43142</v>
       </c>
       <c r="F19" t="s">
         <v>135</v>
       </c>
-      <c r="H19" s="60">
+      <c r="H19" s="58">
         <v>627909</v>
       </c>
-      <c r="I19" s="53" t="s">
+      <c r="I19" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="J19" s="63" t="s">
+      <c r="J19" s="61" t="s">
         <v>158</v>
       </c>
-      <c r="K19" s="53" t="s">
-        <v>265</v>
-      </c>
-      <c r="L19" s="62">
+      <c r="K19" s="51" t="s">
+        <v>263</v>
+      </c>
+      <c r="L19" s="60">
         <v>43151</v>
       </c>
-      <c r="M19" s="53" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M19" s="51" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="4">
         <v>627445</v>
       </c>
@@ -3146,138 +3111,138 @@
       <c r="D20" t="s">
         <v>162</v>
       </c>
-      <c r="E20" s="42">
+      <c r="E20" s="40">
         <v>43142</v>
       </c>
       <c r="F20" t="s">
         <v>135</v>
       </c>
-      <c r="H20" s="60">
+      <c r="H20" s="58">
         <v>627912</v>
       </c>
-      <c r="I20" s="53" t="s">
+      <c r="I20" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="J20" s="63" t="s">
+      <c r="J20" s="61" t="s">
         <v>161</v>
       </c>
-      <c r="K20" s="53" t="s">
-        <v>264</v>
-      </c>
-      <c r="L20" s="62">
+      <c r="K20" s="51" t="s">
+        <v>262</v>
+      </c>
+      <c r="L20" s="60">
         <v>43151</v>
       </c>
-      <c r="M20" s="53" t="s">
+      <c r="M20" s="51" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="3" customFormat="1">
+      <c r="A21" s="75">
+        <v>627903</v>
+      </c>
+      <c r="B21" s="74" t="s">
+        <v>257</v>
+      </c>
+      <c r="C21" s="76">
+        <v>792850013131</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E21" s="77">
+        <v>43151</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="H21" s="78">
+        <v>628237</v>
+      </c>
+      <c r="I21" s="50" t="s">
+        <v>257</v>
+      </c>
+      <c r="J21" s="79">
+        <v>792850013131</v>
+      </c>
+      <c r="K21" s="80" t="s">
+        <v>321</v>
+      </c>
+      <c r="L21" s="81">
+        <v>43156</v>
+      </c>
+      <c r="M21" s="80" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="3" customFormat="1">
+      <c r="A22" s="75">
+        <v>627906</v>
+      </c>
+      <c r="B22" s="49" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="77">
-        <v>627903</v>
-      </c>
-      <c r="B21" s="76" t="s">
-        <v>259</v>
-      </c>
-      <c r="C21" s="78">
-        <v>792850013131</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="E21" s="79">
+      <c r="C22" s="76">
+        <v>681131052412</v>
+      </c>
+      <c r="D22" s="75">
+        <v>378120</v>
+      </c>
+      <c r="E22" s="77">
         <v>43151</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F22" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="H22" s="78">
+        <v>628247</v>
+      </c>
+      <c r="I22" s="46" t="s">
+        <v>316</v>
+      </c>
+      <c r="J22" s="82" t="s">
+        <v>317</v>
+      </c>
+      <c r="K22" s="82" t="s">
+        <v>318</v>
+      </c>
+      <c r="L22" s="81">
+        <v>43156</v>
+      </c>
+      <c r="M22" s="80" t="s">
+        <v>319</v>
+      </c>
+      <c r="N22" s="83" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="B24" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="B25" s="72" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="B26" s="73" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="B27" s="72" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="B28" s="74" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="B29" s="49" t="s">
         <v>255</v>
-      </c>
-      <c r="H21" s="80">
-        <v>628237</v>
-      </c>
-      <c r="I21" s="52" t="s">
-        <v>259</v>
-      </c>
-      <c r="J21" s="81">
-        <v>792850013131</v>
-      </c>
-      <c r="K21" s="82" t="s">
-        <v>323</v>
-      </c>
-      <c r="L21" s="83">
-        <v>43156</v>
-      </c>
-      <c r="M21" s="82" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="77">
-        <v>627906</v>
-      </c>
-      <c r="B22" s="51" t="s">
-        <v>257</v>
-      </c>
-      <c r="C22" s="78">
-        <v>681131052412</v>
-      </c>
-      <c r="D22" s="77">
-        <v>378120</v>
-      </c>
-      <c r="E22" s="79">
-        <v>43151</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="H22" s="80">
-        <v>628247</v>
-      </c>
-      <c r="I22" s="48" t="s">
-        <v>318</v>
-      </c>
-      <c r="J22" s="84" t="s">
-        <v>319</v>
-      </c>
-      <c r="K22" s="84" t="s">
-        <v>320</v>
-      </c>
-      <c r="L22" s="83">
-        <v>43156</v>
-      </c>
-      <c r="M22" s="82" t="s">
-        <v>321</v>
-      </c>
-      <c r="N22" s="85" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="74" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="75" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="74" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="76" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="51" t="s">
-        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3287,17 +3252,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="54.85546875" customWidth="1"/>
@@ -3313,893 +3278,893 @@
     <col min="13" max="13" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
-        <v>231</v>
-      </c>
-      <c r="H1" s="44" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="43" t="s">
+        <v>229</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="68" t="s">
+      <c r="E2" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="87" t="s">
+      <c r="F2" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="88" t="s">
+      <c r="G2" s="34"/>
+      <c r="H2" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="88" t="s">
+      <c r="I2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="68" t="s">
+      <c r="J2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="68" t="s">
+      <c r="K2" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="88" t="s">
+      <c r="L2" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="88" t="s">
+      <c r="M2" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="N2" s="86" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="71">
+      <c r="N2" s="84" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="69">
         <v>627186</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="71">
+      <c r="D3" s="69">
         <v>73354457</v>
       </c>
-      <c r="E3" s="89">
+      <c r="E3" s="87">
         <v>43138</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="36"/>
-      <c r="H3" s="60">
+      <c r="G3" s="34"/>
+      <c r="H3" s="58">
         <v>627336</v>
       </c>
-      <c r="I3" s="53" t="s">
+      <c r="I3" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="J3" s="61" t="s">
+      <c r="J3" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="K3" s="60">
+      <c r="K3" s="58">
         <v>73834757</v>
       </c>
-      <c r="L3" s="62">
+      <c r="L3" s="60">
         <v>43139</v>
       </c>
-      <c r="M3" s="53" t="s">
+      <c r="M3" s="51" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="71">
+    <row r="4" spans="1:14">
+      <c r="A4" s="69">
         <v>627187</v>
       </c>
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="84" t="s">
+      <c r="D4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="90">
+      <c r="E4" s="88">
         <v>43138</v>
       </c>
-      <c r="F4" s="82" t="s">
+      <c r="F4" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="G4" s="82"/>
-      <c r="H4" s="91">
+      <c r="G4" s="80"/>
+      <c r="H4" s="89">
         <v>627338</v>
       </c>
-      <c r="I4" s="48" t="s">
+      <c r="I4" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="61" t="s">
+      <c r="J4" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="60">
+      <c r="K4" s="58">
         <v>7219</v>
       </c>
-      <c r="L4" s="62">
+      <c r="L4" s="60">
         <v>43139</v>
       </c>
-      <c r="M4" s="53" t="s">
+      <c r="M4" s="51" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="71">
+    <row r="5" spans="1:14">
+      <c r="A5" s="69">
         <v>627188</v>
       </c>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="84" t="s">
+      <c r="C5" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="84" t="s">
+      <c r="D5" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="90">
+      <c r="E5" s="88">
         <v>43138</v>
       </c>
-      <c r="F5" s="82" t="s">
+      <c r="F5" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="G5" s="82"/>
-      <c r="H5" s="91">
+      <c r="G5" s="80"/>
+      <c r="H5" s="89">
         <v>627901</v>
       </c>
-      <c r="I5" s="48" t="s">
+      <c r="I5" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="61" t="s">
-        <v>254</v>
-      </c>
-      <c r="K5" s="60">
+      <c r="J5" s="59" t="s">
+        <v>252</v>
+      </c>
+      <c r="K5" s="58">
         <v>6259</v>
       </c>
-      <c r="L5" s="62">
+      <c r="L5" s="60">
         <v>43151</v>
       </c>
-      <c r="M5" s="53" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="71">
+      <c r="M5" s="51" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="69">
         <v>627189</v>
       </c>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="84" t="s">
+      <c r="C6" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="82" t="s">
+      <c r="D6" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="90">
+      <c r="E6" s="88">
         <v>43138</v>
       </c>
-      <c r="F6" s="82" t="s">
+      <c r="F6" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="82"/>
-      <c r="H6" s="91">
+      <c r="G6" s="80"/>
+      <c r="H6" s="89">
         <v>627432</v>
       </c>
-      <c r="I6" s="48" t="s">
+      <c r="I6" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="J6" s="61" t="s">
+      <c r="J6" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="53" t="s">
+      <c r="K6" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="L6" s="62">
+      <c r="L6" s="60">
         <v>43142</v>
       </c>
-      <c r="M6" s="53" t="s">
+      <c r="M6" s="51" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="71">
+    <row r="7" spans="1:14">
+      <c r="A7" s="69">
         <v>627190</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="82" t="s">
+      <c r="D7" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="90">
+      <c r="E7" s="88">
         <v>43138</v>
       </c>
-      <c r="F7" s="82" t="s">
+      <c r="F7" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="G7" s="82"/>
-      <c r="H7" s="91">
+      <c r="G7" s="80"/>
+      <c r="H7" s="89">
         <v>628173</v>
       </c>
-      <c r="I7" s="82" t="s">
+      <c r="I7" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="72" t="s">
+      <c r="J7" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="36" t="s">
-        <v>295</v>
-      </c>
-      <c r="L7" s="62">
+      <c r="K7" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="L7" s="60">
         <v>43153</v>
       </c>
-      <c r="M7" s="53" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="71">
+      <c r="M7" s="51" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="69">
         <v>627191</v>
       </c>
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="82" t="s">
+      <c r="D8" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="90">
+      <c r="E8" s="88">
         <v>43138</v>
       </c>
-      <c r="F8" s="82" t="s">
+      <c r="F8" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="G8" s="82"/>
-      <c r="H8" s="91">
+      <c r="G8" s="80"/>
+      <c r="H8" s="89">
         <v>627902</v>
       </c>
-      <c r="I8" s="48" t="s">
+      <c r="I8" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="J8" s="61" t="s">
+      <c r="J8" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="K8" s="53" t="s">
-        <v>262</v>
-      </c>
-      <c r="L8" s="62">
+      <c r="K8" s="51" t="s">
+        <v>260</v>
+      </c>
+      <c r="L8" s="60">
         <v>43151</v>
       </c>
-      <c r="M8" s="53" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="71">
+      <c r="M8" s="51" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="69">
         <v>627192</v>
       </c>
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="84" t="s">
+      <c r="C9" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="82" t="s">
+      <c r="D9" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="90">
+      <c r="E9" s="88">
         <v>43138</v>
       </c>
-      <c r="F9" s="82" t="s">
+      <c r="F9" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="82"/>
-      <c r="H9" s="91">
+      <c r="G9" s="80"/>
+      <c r="H9" s="89">
         <v>627339</v>
       </c>
-      <c r="I9" s="48" t="s">
+      <c r="I9" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="J9" s="61" t="s">
+      <c r="J9" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="K9" s="53" t="s">
+      <c r="K9" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="L9" s="62">
+      <c r="L9" s="60">
         <v>43139</v>
       </c>
-      <c r="M9" s="53" t="s">
+      <c r="M9" s="51" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="71">
+    <row r="10" spans="1:14">
+      <c r="A10" s="69">
         <v>627193</v>
       </c>
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="84" t="s">
+      <c r="C10" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="82" t="s">
+      <c r="D10" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="90">
+      <c r="E10" s="88">
         <v>43138</v>
       </c>
-      <c r="F10" s="82" t="s">
+      <c r="F10" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="82"/>
-      <c r="H10" s="91">
+      <c r="G10" s="80"/>
+      <c r="H10" s="89">
         <v>627433</v>
       </c>
-      <c r="I10" s="48" t="s">
+      <c r="I10" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="J10" s="61" t="s">
+      <c r="J10" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="53" t="s">
+      <c r="K10" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="L10" s="62">
+      <c r="L10" s="60">
         <v>43142</v>
       </c>
-      <c r="M10" s="53" t="s">
+      <c r="M10" s="51" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="71">
+    <row r="11" spans="1:14">
+      <c r="A11" s="69">
         <v>627194</v>
       </c>
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="84" t="s">
+      <c r="C11" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="82" t="s">
+      <c r="D11" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="90">
+      <c r="E11" s="88">
         <v>43138</v>
       </c>
-      <c r="F11" s="82" t="s">
+      <c r="F11" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="82"/>
-      <c r="H11" s="91">
+      <c r="G11" s="80"/>
+      <c r="H11" s="89">
         <v>627340</v>
       </c>
-      <c r="I11" s="48" t="s">
+      <c r="I11" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="J11" s="61" t="s">
+      <c r="J11" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="K11" s="53" t="s">
+      <c r="K11" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="L11" s="62">
+      <c r="L11" s="60">
         <v>43139</v>
       </c>
-      <c r="M11" s="53" t="s">
+      <c r="M11" s="51" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="71">
+    <row r="12" spans="1:14">
+      <c r="A12" s="69">
         <v>627196</v>
       </c>
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="84" t="s">
+      <c r="C12" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="82" t="s">
+      <c r="D12" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="90">
+      <c r="E12" s="88">
         <v>43138</v>
       </c>
-      <c r="F12" s="82" t="s">
+      <c r="F12" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="82"/>
-      <c r="H12" s="91">
+      <c r="G12" s="80"/>
+      <c r="H12" s="89">
         <v>627348</v>
       </c>
-      <c r="I12" s="48" t="s">
+      <c r="I12" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="61" t="s">
+      <c r="J12" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="K12" s="53" t="s">
+      <c r="K12" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="L12" s="62">
+      <c r="L12" s="60">
         <v>43139</v>
       </c>
-      <c r="M12" s="53" t="s">
+      <c r="M12" s="51" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="71">
+    <row r="13" spans="1:14">
+      <c r="A13" s="69">
         <v>627197</v>
       </c>
-      <c r="B13" s="82" t="s">
+      <c r="B13" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="84" t="s">
+      <c r="C13" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="82" t="s">
+      <c r="D13" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="90">
+      <c r="E13" s="88">
         <v>43138</v>
       </c>
-      <c r="F13" s="82" t="s">
+      <c r="F13" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="G13" s="82"/>
-      <c r="H13" s="91">
+      <c r="G13" s="80"/>
+      <c r="H13" s="89">
         <v>628242</v>
       </c>
-      <c r="I13" s="48" t="s">
+      <c r="I13" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="72" t="s">
+      <c r="J13" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="K13" s="36" t="s">
+      <c r="K13" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="L13" s="62">
+      <c r="L13" s="60">
         <v>43154</v>
       </c>
-      <c r="M13" s="53" t="s">
-        <v>255</v>
-      </c>
-      <c r="N13" s="46" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="71">
+      <c r="M13" s="51" t="s">
+        <v>253</v>
+      </c>
+      <c r="N13" s="44" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="69">
         <v>627198</v>
       </c>
-      <c r="B14" s="82" t="s">
+      <c r="B14" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="84" t="s">
+      <c r="C14" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="84" t="s">
+      <c r="D14" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="90">
+      <c r="E14" s="88">
         <v>43138</v>
       </c>
-      <c r="F14" s="82" t="s">
+      <c r="F14" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="G14" s="82"/>
-      <c r="H14" s="91">
+      <c r="G14" s="80"/>
+      <c r="H14" s="89">
         <v>627352</v>
       </c>
-      <c r="I14" s="48" t="s">
+      <c r="I14" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="61" t="s">
+      <c r="J14" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="K14" s="53" t="s">
+      <c r="K14" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="L14" s="62">
+      <c r="L14" s="60">
         <v>43139</v>
       </c>
-      <c r="M14" s="53" t="s">
+      <c r="M14" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="N14" s="46"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="71">
+      <c r="N14" s="44"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="69">
         <v>627199</v>
       </c>
-      <c r="B15" s="82" t="s">
+      <c r="B15" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="84" t="s">
+      <c r="C15" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="82" t="s">
+      <c r="D15" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="90">
+      <c r="E15" s="88">
         <v>43138</v>
       </c>
-      <c r="F15" s="82" t="s">
+      <c r="F15" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="G15" s="82"/>
-      <c r="H15" s="91">
+      <c r="G15" s="80"/>
+      <c r="H15" s="89">
         <v>627908</v>
       </c>
-      <c r="I15" s="48" t="s">
+      <c r="I15" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="61" t="s">
+      <c r="J15" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="K15" s="61" t="s">
+      <c r="K15" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="L15" s="62">
+      <c r="L15" s="60">
         <v>43151</v>
       </c>
-      <c r="M15" s="53" t="s">
-        <v>255</v>
-      </c>
-      <c r="N15" s="46" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="71">
+      <c r="M15" s="51" t="s">
+        <v>253</v>
+      </c>
+      <c r="N15" s="44" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="69">
         <v>627200</v>
       </c>
-      <c r="B16" s="82" t="s">
+      <c r="B16" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="84" t="s">
+      <c r="C16" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="82" t="s">
+      <c r="D16" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="90">
+      <c r="E16" s="88">
         <v>43138</v>
       </c>
-      <c r="F16" s="82" t="s">
+      <c r="F16" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="G16" s="82"/>
-      <c r="H16" s="91">
+      <c r="G16" s="80"/>
+      <c r="H16" s="89">
         <v>627351</v>
       </c>
-      <c r="I16" s="48" t="s">
+      <c r="I16" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="J16" s="61" t="s">
+      <c r="J16" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="K16" s="53" t="s">
+      <c r="K16" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="L16" s="62">
+      <c r="L16" s="60">
         <v>43139</v>
       </c>
-      <c r="M16" s="53" t="s">
+      <c r="M16" s="51" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="71">
+    <row r="17" spans="1:13">
+      <c r="A17" s="69">
         <v>627201</v>
       </c>
-      <c r="B17" s="82" t="s">
+      <c r="B17" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="84" t="s">
+      <c r="C17" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="82" t="s">
+      <c r="D17" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="90">
+      <c r="E17" s="88">
         <v>43138</v>
       </c>
-      <c r="F17" s="82" t="s">
+      <c r="F17" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="82"/>
-      <c r="H17" s="91">
+      <c r="G17" s="80"/>
+      <c r="H17" s="89">
         <v>627353</v>
       </c>
-      <c r="I17" s="48" t="s">
+      <c r="I17" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="J17" s="61" t="s">
+      <c r="J17" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="K17" s="53" t="s">
+      <c r="K17" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="L17" s="62">
+      <c r="L17" s="60">
         <v>43139</v>
       </c>
-      <c r="M17" s="53" t="s">
+      <c r="M17" s="51" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="71">
+    <row r="18" spans="1:13">
+      <c r="A18" s="69">
         <v>627202</v>
       </c>
-      <c r="B18" s="82" t="s">
+      <c r="B18" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="84" t="s">
+      <c r="C18" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="82" t="s">
+      <c r="D18" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="90">
+      <c r="E18" s="88">
         <v>43138</v>
       </c>
-      <c r="F18" s="82" t="s">
+      <c r="F18" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="G18" s="82"/>
-      <c r="H18" s="91">
+      <c r="G18" s="80"/>
+      <c r="H18" s="89">
         <v>627354</v>
       </c>
-      <c r="I18" s="48" t="s">
+      <c r="I18" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="J18" s="61" t="s">
+      <c r="J18" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="K18" s="53" t="s">
+      <c r="K18" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="L18" s="62">
+      <c r="L18" s="60">
         <v>43139</v>
       </c>
-      <c r="M18" s="53" t="s">
+      <c r="M18" s="51" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="60">
+    <row r="19" spans="1:13">
+      <c r="A19" s="58">
         <v>627337</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="92" t="s">
+      <c r="C19" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="82" t="s">
+      <c r="D19" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="93">
+      <c r="E19" s="91">
         <v>43139</v>
       </c>
-      <c r="F19" s="48" t="s">
+      <c r="F19" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="G19" s="82"/>
-      <c r="H19" s="91">
+      <c r="G19" s="80"/>
+      <c r="H19" s="89">
         <v>627430</v>
       </c>
-      <c r="I19" s="94" t="s">
+      <c r="I19" s="92" t="s">
         <v>75</v>
       </c>
-      <c r="J19" s="61" t="s">
+      <c r="J19" s="59" t="s">
         <v>172</v>
       </c>
-      <c r="K19" s="53" t="s">
+      <c r="K19" s="51" t="s">
         <v>173</v>
       </c>
-      <c r="L19" s="62">
+      <c r="L19" s="60">
         <v>43142</v>
       </c>
-      <c r="M19" s="53" t="s">
+      <c r="M19" s="51" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="71">
+    <row r="20" spans="1:13">
+      <c r="A20" s="69">
         <v>627446</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="C20" s="72" t="s">
+      <c r="C20" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="E20" s="89">
+      <c r="E20" s="87">
         <v>43142</v>
       </c>
-      <c r="F20" s="36" t="s">
+      <c r="F20" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="G20" s="36"/>
-      <c r="H20" s="60">
+      <c r="G20" s="34"/>
+      <c r="H20" s="58">
         <v>628176</v>
       </c>
-      <c r="I20" s="53" t="s">
+      <c r="I20" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="J20" s="72" t="s">
+      <c r="J20" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="K20" s="48" t="s">
-        <v>294</v>
-      </c>
-      <c r="L20" s="62">
+      <c r="K20" s="46" t="s">
+        <v>292</v>
+      </c>
+      <c r="L20" s="60">
         <v>43153</v>
       </c>
-      <c r="M20" s="53" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="71">
+      <c r="M20" s="51" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="69">
         <v>627447</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="C21" s="72" t="s">
+      <c r="C21" s="70" t="s">
         <v>164</v>
       </c>
-      <c r="D21" s="71">
+      <c r="D21" s="69">
         <v>77019</v>
       </c>
-      <c r="E21" s="89">
+      <c r="E21" s="87">
         <v>43142</v>
       </c>
-      <c r="F21" s="36" t="s">
+      <c r="F21" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="G21" s="36"/>
-      <c r="H21" s="60">
+      <c r="G21" s="34"/>
+      <c r="H21" s="58">
         <v>627913</v>
       </c>
-      <c r="I21" s="53" t="s">
+      <c r="I21" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="J21" s="61" t="s">
+      <c r="J21" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="K21" s="60">
+      <c r="K21" s="58">
         <v>72573</v>
       </c>
-      <c r="L21" s="62">
+      <c r="L21" s="60">
         <v>43151</v>
       </c>
-      <c r="M21" s="53" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="71">
+      <c r="M21" s="51" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="69">
         <v>627434</v>
       </c>
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="D22" s="71">
+      <c r="D22" s="69">
         <v>7129832408</v>
       </c>
-      <c r="E22" s="89">
+      <c r="E22" s="87">
         <v>43142</v>
       </c>
-      <c r="F22" s="36" t="s">
+      <c r="F22" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="G22" s="36"/>
-      <c r="H22" s="60">
+      <c r="G22" s="34"/>
+      <c r="H22" s="58">
         <v>627904</v>
       </c>
-      <c r="I22" s="53" t="s">
+      <c r="I22" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="J22" s="61" t="s">
+      <c r="J22" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="K22" s="53">
+      <c r="K22" s="51">
         <v>7158832408</v>
       </c>
-      <c r="L22" s="62">
+      <c r="L22" s="60">
         <v>43151</v>
       </c>
-      <c r="M22" s="53" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M22" s="51" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="B24" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="82" t="s">
+        <v>349</v>
+      </c>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="B25" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="82" t="s">
+      <c r="D25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="B26" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="82" t="s">
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="B27" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="52" t="s">
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="B28" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4208,14 +4173,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
@@ -4227,602 +4192,602 @@
     <col min="9" max="9" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
-        <v>232</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>289</v>
-      </c>
-      <c r="J1" s="86" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A1" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="94" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="84" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="20">
+        <v>627409</v>
+      </c>
+      <c r="B3" s="47" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="C3" s="23">
+        <v>43142</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="F3" s="30">
+        <v>628172</v>
+      </c>
+      <c r="G3" s="95" t="s">
+        <v>180</v>
+      </c>
+      <c r="H3" s="23">
+        <v>43151</v>
+      </c>
+      <c r="I3" s="96" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="20">
+        <v>627410</v>
+      </c>
+      <c r="B4" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="95" t="s">
-        <v>180</v>
-      </c>
-      <c r="G2" s="96" t="s">
+      <c r="C4" s="23">
+        <v>43142</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="F4" s="30">
+        <v>627810</v>
+      </c>
+      <c r="G4" s="95" t="s">
         <v>181</v>
       </c>
-      <c r="H2" s="97" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" s="98" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="21">
-        <v>627409</v>
-      </c>
-      <c r="B3" s="49" t="s">
+      <c r="H4" s="23">
+        <v>43147</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="20">
+        <v>627411</v>
+      </c>
+      <c r="B5" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C5" s="23">
         <v>43142</v>
       </c>
-      <c r="D3" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="F3" s="32">
-        <v>628172</v>
-      </c>
-      <c r="G3" s="99" t="s">
+      <c r="D5" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="F5" s="30">
+        <v>627811</v>
+      </c>
+      <c r="G5" s="97" t="s">
         <v>182</v>
       </c>
-      <c r="H3" s="25">
-        <v>43151</v>
-      </c>
-      <c r="I3" s="100" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="21">
-        <v>627410</v>
-      </c>
-      <c r="B4" s="49" t="s">
+      <c r="H5" s="23">
+        <v>43147</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="20">
+        <v>627412</v>
+      </c>
+      <c r="B6" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C6" s="23">
         <v>43142</v>
       </c>
-      <c r="D4" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="F4" s="32">
-        <v>627810</v>
-      </c>
-      <c r="G4" s="99" t="s">
+      <c r="D6" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="F6" s="30">
+        <v>627812</v>
+      </c>
+      <c r="G6" s="95" t="s">
         <v>183</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H6" s="23">
         <v>43147</v>
       </c>
-      <c r="I4" s="32" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="21">
-        <v>627411</v>
-      </c>
-      <c r="B5" s="49" t="s">
+      <c r="I6" s="30" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="20">
+        <v>627413</v>
+      </c>
+      <c r="B7" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C7" s="23">
         <v>43142</v>
       </c>
-      <c r="D5" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="F5" s="32">
-        <v>627811</v>
-      </c>
-      <c r="G5" s="101" t="s">
+      <c r="D7" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="F7" s="30">
+        <v>627813</v>
+      </c>
+      <c r="G7" s="97" t="s">
         <v>184</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H7" s="23">
         <v>43147</v>
       </c>
-      <c r="I5" s="32" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="21">
-        <v>627412</v>
-      </c>
-      <c r="B6" s="49" t="s">
+      <c r="I7" s="30" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="20">
+        <v>627414</v>
+      </c>
+      <c r="B8" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C8" s="23">
         <v>43142</v>
       </c>
-      <c r="D6" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="F6" s="32">
-        <v>627812</v>
-      </c>
-      <c r="G6" s="99" t="s">
+      <c r="D8" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="F8" s="30">
+        <v>627814</v>
+      </c>
+      <c r="G8" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H8" s="23">
         <v>43147</v>
       </c>
-      <c r="I6" s="32" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="21">
-        <v>627413</v>
-      </c>
-      <c r="B7" s="49" t="s">
+      <c r="I8" s="30" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="20">
+        <v>627415</v>
+      </c>
+      <c r="B9" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C9" s="23">
         <v>43142</v>
       </c>
-      <c r="D7" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="F7" s="32">
-        <v>627813</v>
-      </c>
-      <c r="G7" s="101" t="s">
+      <c r="D9" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="F9" s="30">
+        <v>627815</v>
+      </c>
+      <c r="G9" s="97" t="s">
         <v>186</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H9" s="23">
         <v>43147</v>
       </c>
-      <c r="I7" s="32" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="21">
-        <v>627414</v>
-      </c>
-      <c r="B8" s="49" t="s">
+      <c r="I9" s="30" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="20">
+        <v>627416</v>
+      </c>
+      <c r="B10" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C10" s="23">
         <v>43142</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="F8" s="32">
-        <v>627814</v>
-      </c>
-      <c r="G8" s="101" t="s">
+      <c r="D10" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="F10" s="30">
+        <v>627816</v>
+      </c>
+      <c r="G10" s="97" t="s">
         <v>187</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H10" s="23">
         <v>43147</v>
       </c>
-      <c r="I8" s="32" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="21">
-        <v>627415</v>
-      </c>
-      <c r="B9" s="49" t="s">
+      <c r="I10" s="30" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="20">
+        <v>627417</v>
+      </c>
+      <c r="B11" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C11" s="23">
         <v>43142</v>
       </c>
-      <c r="D9" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="F9" s="32">
-        <v>627815</v>
-      </c>
-      <c r="G9" s="101" t="s">
+      <c r="D11" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="F11" s="30">
+        <v>627817</v>
+      </c>
+      <c r="G11" s="97" t="s">
         <v>188</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H11" s="23">
         <v>43147</v>
       </c>
-      <c r="I9" s="32" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="21">
-        <v>627416</v>
-      </c>
-      <c r="B10" s="49" t="s">
+      <c r="I11" s="30" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="20">
+        <v>627418</v>
+      </c>
+      <c r="B12" s="47" t="s">
         <v>189</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C12" s="23">
         <v>43142</v>
       </c>
-      <c r="D10" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="F10" s="32">
-        <v>627816</v>
-      </c>
-      <c r="G10" s="101" t="s">
+      <c r="D12" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="F12" s="30">
+        <v>627818</v>
+      </c>
+      <c r="G12" s="97" t="s">
         <v>189</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H12" s="23">
         <v>43147</v>
       </c>
-      <c r="I10" s="32" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="21">
-        <v>627417</v>
-      </c>
-      <c r="B11" s="49" t="s">
+      <c r="I12" s="30" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="20">
+        <v>627419</v>
+      </c>
+      <c r="B13" s="47" t="s">
         <v>190</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C13" s="23">
         <v>43142</v>
       </c>
-      <c r="D11" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="F11" s="32">
-        <v>627817</v>
-      </c>
-      <c r="G11" s="101" t="s">
+      <c r="D13" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="F13" s="30">
+        <v>627819</v>
+      </c>
+      <c r="G13" s="97" t="s">
         <v>190</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H13" s="23">
         <v>43147</v>
       </c>
-      <c r="I11" s="32" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="21">
-        <v>627418</v>
-      </c>
-      <c r="B12" s="49" t="s">
+      <c r="I13" s="30" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="20">
+        <v>627420</v>
+      </c>
+      <c r="B14" s="47" t="s">
         <v>191</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C14" s="23">
         <v>43142</v>
       </c>
-      <c r="D12" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="F12" s="32">
-        <v>627818</v>
-      </c>
-      <c r="G12" s="101" t="s">
+      <c r="D14" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="F14" s="32">
+        <v>628248</v>
+      </c>
+      <c r="G14" s="98" t="s">
+        <v>306</v>
+      </c>
+      <c r="H14" s="23">
+        <v>43153</v>
+      </c>
+      <c r="I14" s="96" t="s">
+        <v>307</v>
+      </c>
+      <c r="J14" s="44" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="20">
+        <v>627421</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" s="23">
+        <v>43142</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="F15" s="30">
+        <v>627820</v>
+      </c>
+      <c r="G15" s="97" t="s">
+        <v>192</v>
+      </c>
+      <c r="H15" s="23">
+        <v>43147</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="J15" s="44"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="20">
+        <v>627422</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" s="23">
+        <v>43142</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="F16" s="32">
+        <v>628244</v>
+      </c>
+      <c r="G16" s="98" t="s">
+        <v>320</v>
+      </c>
+      <c r="H16" s="23">
+        <v>43153</v>
+      </c>
+      <c r="I16" s="96" t="s">
+        <v>307</v>
+      </c>
+      <c r="J16" s="44" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="20">
+        <v>627423</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="C17" s="23">
+        <v>43142</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="F17" s="30">
+        <v>627821</v>
+      </c>
+      <c r="G17" s="97" t="s">
+        <v>194</v>
+      </c>
+      <c r="H17" s="23">
+        <v>43147</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="J17" s="44"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="20">
+        <v>627424</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="C18" s="23">
+        <v>43142</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="F18" s="32">
+        <v>628241</v>
+      </c>
+      <c r="G18" s="97" t="s">
+        <v>308</v>
+      </c>
+      <c r="H18" s="23">
+        <v>43153</v>
+      </c>
+      <c r="I18" s="96" t="s">
+        <v>307</v>
+      </c>
+      <c r="J18" s="44" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="20">
+        <v>627425</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="C19" s="23">
+        <v>43142</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="F19" s="30">
+        <v>627822</v>
+      </c>
+      <c r="G19" s="97" t="s">
+        <v>196</v>
+      </c>
+      <c r="H19" s="23">
+        <v>43147</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="20">
+        <v>627426</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="C20" s="23">
+        <v>43142</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="F20" s="30">
+        <v>627823</v>
+      </c>
+      <c r="G20" s="97" t="s">
+        <v>197</v>
+      </c>
+      <c r="H20" s="23">
+        <v>43147</v>
+      </c>
+      <c r="I20" s="30" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="20">
+        <v>627427</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="C21" s="23">
+        <v>43142</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="F21" s="30">
+        <v>627824</v>
+      </c>
+      <c r="G21" s="95" t="s">
+        <v>198</v>
+      </c>
+      <c r="H21" s="23">
+        <v>43147</v>
+      </c>
+      <c r="I21" s="30" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A22" s="21">
+        <v>627428</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="C22" s="27">
+        <v>43142</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="F22" s="30">
+        <v>627825</v>
+      </c>
+      <c r="G22" s="97" t="s">
+        <v>199</v>
+      </c>
+      <c r="H22" s="23">
+        <v>43147</v>
+      </c>
+      <c r="I22" s="30" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="B24" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="B25" s="38" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="B26" s="38" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="B27" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="H12" s="25">
-        <v>43147</v>
-      </c>
-      <c r="I12" s="32" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="21">
-        <v>627419</v>
-      </c>
-      <c r="B13" s="49" t="s">
-        <v>192</v>
-      </c>
-      <c r="C13" s="25">
-        <v>43142</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="F13" s="32">
-        <v>627819</v>
-      </c>
-      <c r="G13" s="101" t="s">
-        <v>192</v>
-      </c>
-      <c r="H13" s="25">
-        <v>43147</v>
-      </c>
-      <c r="I13" s="32" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="21">
-        <v>627420</v>
-      </c>
-      <c r="B14" s="49" t="s">
+    </row>
+    <row r="28" spans="1:10">
+      <c r="B28" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="C14" s="25">
-        <v>43142</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="F14" s="34">
-        <v>628248</v>
-      </c>
-      <c r="G14" s="102" t="s">
-        <v>308</v>
-      </c>
-      <c r="H14" s="25">
-        <v>43153</v>
-      </c>
-      <c r="I14" s="100" t="s">
-        <v>309</v>
-      </c>
-      <c r="J14" s="46" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="21">
-        <v>627421</v>
-      </c>
-      <c r="B15" s="49" t="s">
-        <v>194</v>
-      </c>
-      <c r="C15" s="25">
-        <v>43142</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="F15" s="32">
-        <v>627820</v>
-      </c>
-      <c r="G15" s="101" t="s">
-        <v>194</v>
-      </c>
-      <c r="H15" s="25">
-        <v>43147</v>
-      </c>
-      <c r="I15" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="J15" s="46"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="21">
-        <v>627422</v>
-      </c>
-      <c r="B16" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="C16" s="25">
-        <v>43142</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="F16" s="34">
-        <v>628244</v>
-      </c>
-      <c r="G16" s="102" t="s">
-        <v>322</v>
-      </c>
-      <c r="H16" s="25">
-        <v>43153</v>
-      </c>
-      <c r="I16" s="100" t="s">
-        <v>309</v>
-      </c>
-      <c r="J16" s="46" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="21">
-        <v>627423</v>
-      </c>
-      <c r="B17" s="49" t="s">
-        <v>196</v>
-      </c>
-      <c r="C17" s="25">
-        <v>43142</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="F17" s="32">
-        <v>627821</v>
-      </c>
-      <c r="G17" s="101" t="s">
-        <v>196</v>
-      </c>
-      <c r="H17" s="25">
-        <v>43147</v>
-      </c>
-      <c r="I17" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="J17" s="46"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="21">
-        <v>627424</v>
-      </c>
-      <c r="B18" s="49" t="s">
-        <v>197</v>
-      </c>
-      <c r="C18" s="25">
-        <v>43142</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="F18" s="34">
-        <v>628241</v>
-      </c>
-      <c r="G18" s="101" t="s">
-        <v>310</v>
-      </c>
-      <c r="H18" s="25">
-        <v>43153</v>
-      </c>
-      <c r="I18" s="100" t="s">
-        <v>309</v>
-      </c>
-      <c r="J18" s="46" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="21">
-        <v>627425</v>
-      </c>
-      <c r="B19" s="49" t="s">
+    </row>
+    <row r="29" spans="1:10">
+      <c r="B29" s="38" t="s">
         <v>198</v>
-      </c>
-      <c r="C19" s="25">
-        <v>43142</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="F19" s="32">
-        <v>627822</v>
-      </c>
-      <c r="G19" s="101" t="s">
-        <v>198</v>
-      </c>
-      <c r="H19" s="25">
-        <v>43147</v>
-      </c>
-      <c r="I19" s="32" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="21">
-        <v>627426</v>
-      </c>
-      <c r="B20" s="49" t="s">
-        <v>199</v>
-      </c>
-      <c r="C20" s="25">
-        <v>43142</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="F20" s="32">
-        <v>627823</v>
-      </c>
-      <c r="G20" s="101" t="s">
-        <v>199</v>
-      </c>
-      <c r="H20" s="25">
-        <v>43147</v>
-      </c>
-      <c r="I20" s="32" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="21">
-        <v>627427</v>
-      </c>
-      <c r="B21" s="49" t="s">
-        <v>200</v>
-      </c>
-      <c r="C21" s="25">
-        <v>43142</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="F21" s="32">
-        <v>627824</v>
-      </c>
-      <c r="G21" s="99" t="s">
-        <v>200</v>
-      </c>
-      <c r="H21" s="25">
-        <v>43147</v>
-      </c>
-      <c r="I21" s="32" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="22">
-        <v>627428</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="C22" s="29">
-        <v>43142</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="F22" s="32">
-        <v>627825</v>
-      </c>
-      <c r="G22" s="101" t="s">
-        <v>201</v>
-      </c>
-      <c r="H22" s="25">
-        <v>43147</v>
-      </c>
-      <c r="I22" s="32" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="40" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="40" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="40" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="40" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="40" t="s">
-        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -4832,14 +4797,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="34.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.140625" customWidth="1"/>
@@ -4852,15 +4817,15 @@
     <col min="11" max="11" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>233</v>
-      </c>
-      <c r="G1" s="46" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
+      <c r="A1" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="G1" s="44" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="10" t="s">
         <v>78</v>
       </c>
@@ -4893,337 +4858,337 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="34">
+    <row r="3" spans="1:11">
+      <c r="A3" s="32">
         <v>627686</v>
       </c>
-      <c r="B3" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="C3" s="33" t="s">
+      <c r="B3" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>344</v>
+      </c>
+      <c r="D3" s="45">
+        <v>43145</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="F3" s="34"/>
+      <c r="G3" s="30">
+        <v>628240</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>327</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="J3" s="45">
+        <v>43156</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="32">
+        <v>627687</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="D4" s="45">
+        <v>43145</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="F4" s="34"/>
+      <c r="G4" s="30">
+        <v>628243</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>326</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="J4" s="45">
+        <v>43156</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="32">
+        <v>627688</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" s="31" t="s">
         <v>346</v>
       </c>
-      <c r="D3" s="47">
+      <c r="D5" s="45">
         <v>43145</v>
       </c>
-      <c r="E3" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="32">
-        <v>628240</v>
-      </c>
-      <c r="H3" s="39" t="s">
+      <c r="E5" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="F5" s="34"/>
+      <c r="G5" s="30">
+        <v>628252</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="J5" s="45">
+        <v>43156</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="32">
+        <v>627689</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>347</v>
+      </c>
+      <c r="D6" s="45">
+        <v>43145</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="F6" s="34"/>
+      <c r="G6" s="30">
+        <v>628239</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>328</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="J6" s="45">
+        <v>43156</v>
+      </c>
+      <c r="K6" s="29" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="32">
+        <v>627690</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="D7" s="45">
+        <v>43145</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="F7" s="34"/>
+      <c r="G7" s="30">
+        <v>628238</v>
+      </c>
+      <c r="H7" s="37" t="s">
         <v>329</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I7" s="71" t="s">
+        <v>338</v>
+      </c>
+      <c r="J7" s="45">
+        <v>43156</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1">
+      <c r="A8" s="32">
+        <v>627841</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="D8" s="45">
+        <v>43150</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="F8" s="34"/>
+      <c r="G8" s="30">
+        <v>628245</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="J8" s="45">
+        <v>43156</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1">
+      <c r="A9" s="32">
+        <v>627842</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="D9" s="45">
+        <v>43150</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="F9" s="34"/>
+      <c r="G9" s="30">
+        <v>628246</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="I9" s="31" t="s">
         <v>339</v>
       </c>
-      <c r="J3" s="47">
+      <c r="J9" s="45">
         <v>43156</v>
       </c>
-      <c r="K3" s="31" t="s">
+      <c r="K9" s="29" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="34">
-        <v>627687</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>227</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>347</v>
-      </c>
-      <c r="D4" s="47">
-        <v>43145</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="32">
-        <v>628243</v>
-      </c>
-      <c r="H4" s="39" t="s">
-        <v>328</v>
-      </c>
-      <c r="I4" s="33" t="s">
-        <v>334</v>
-      </c>
-      <c r="J4" s="47">
+    <row r="10" spans="1:11" ht="15" customHeight="1">
+      <c r="A10" s="32">
+        <v>627843</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="D10" s="45">
+        <v>43150</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="F10" s="34"/>
+      <c r="G10" s="30">
+        <v>628249</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="I10" s="71" t="s">
+        <v>341</v>
+      </c>
+      <c r="J10" s="45">
         <v>43156</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K10" s="29" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="34">
-        <v>627688</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>228</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>348</v>
-      </c>
-      <c r="D5" s="47">
-        <v>43145</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="32">
-        <v>628252</v>
-      </c>
-      <c r="H5" s="31" t="s">
-        <v>327</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>336</v>
-      </c>
-      <c r="J5" s="47">
+    <row r="11" spans="1:11" ht="15" customHeight="1">
+      <c r="A11" s="32">
+        <v>627844</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="D11" s="45">
+        <v>43150</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="F11" s="34"/>
+      <c r="G11" s="30">
+        <v>628250</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>322</v>
+      </c>
+      <c r="I11" s="71" t="s">
+        <v>340</v>
+      </c>
+      <c r="J11" s="45">
         <v>43156</v>
       </c>
-      <c r="K5" s="31" t="s">
+      <c r="K11" s="29" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="34">
-        <v>627689</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>229</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>349</v>
-      </c>
-      <c r="D6" s="47">
-        <v>43145</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="32">
-        <v>628239</v>
-      </c>
-      <c r="H6" s="39" t="s">
-        <v>330</v>
-      </c>
-      <c r="I6" s="33" t="s">
-        <v>338</v>
-      </c>
-      <c r="J6" s="47">
+    <row r="12" spans="1:11" ht="15" customHeight="1">
+      <c r="A12" s="32">
+        <v>627845</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="D12" s="45">
+        <v>43150</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="F12" s="34"/>
+      <c r="G12" s="30">
+        <v>628251</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>324</v>
+      </c>
+      <c r="I12" s="71" t="s">
+        <v>342</v>
+      </c>
+      <c r="J12" s="45">
         <v>43156</v>
       </c>
-      <c r="K6" s="31" t="s">
+      <c r="K12" s="29" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="34">
-        <v>627690</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>230</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>350</v>
-      </c>
-      <c r="D7" s="47">
-        <v>43145</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="F7" s="36"/>
-      <c r="G7" s="32">
-        <v>628238</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>331</v>
-      </c>
-      <c r="I7" s="73" t="s">
-        <v>340</v>
-      </c>
-      <c r="J7" s="47">
-        <v>43156</v>
-      </c>
-      <c r="K7" s="31" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34">
-        <v>627841</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>244</v>
-      </c>
-      <c r="D8" s="47">
-        <v>43150</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>243</v>
-      </c>
-      <c r="F8" s="36"/>
-      <c r="G8" s="32">
-        <v>628245</v>
-      </c>
-      <c r="H8" s="39" t="s">
-        <v>275</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>244</v>
-      </c>
-      <c r="J8" s="47">
-        <v>43156</v>
-      </c>
-      <c r="K8" s="31" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34">
-        <v>627842</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>241</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="D9" s="47">
-        <v>43150</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>243</v>
-      </c>
-      <c r="F9" s="36"/>
-      <c r="G9" s="32">
-        <v>628246</v>
-      </c>
-      <c r="H9" s="35" t="s">
-        <v>325</v>
-      </c>
-      <c r="I9" s="33" t="s">
-        <v>341</v>
-      </c>
-      <c r="J9" s="47">
-        <v>43156</v>
-      </c>
-      <c r="K9" s="31" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34">
-        <v>627843</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>245</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>246</v>
-      </c>
-      <c r="D10" s="47">
-        <v>43150</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>243</v>
-      </c>
-      <c r="F10" s="36"/>
-      <c r="G10" s="32">
-        <v>628249</v>
-      </c>
-      <c r="H10" s="39" t="s">
-        <v>245</v>
-      </c>
-      <c r="I10" s="73" t="s">
-        <v>343</v>
-      </c>
-      <c r="J10" s="47">
-        <v>43156</v>
-      </c>
-      <c r="K10" s="31" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34">
-        <v>627844</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>237</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="D11" s="47">
-        <v>43150</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>243</v>
-      </c>
-      <c r="F11" s="36"/>
-      <c r="G11" s="32">
-        <v>628250</v>
-      </c>
-      <c r="H11" s="39" t="s">
-        <v>324</v>
-      </c>
-      <c r="I11" s="73" t="s">
-        <v>342</v>
-      </c>
-      <c r="J11" s="47">
-        <v>43156</v>
-      </c>
-      <c r="K11" s="31" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34">
-        <v>627845</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>238</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="D12" s="47">
-        <v>43150</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>243</v>
-      </c>
-      <c r="F12" s="36"/>
-      <c r="G12" s="32">
-        <v>628251</v>
-      </c>
-      <c r="H12" s="39" t="s">
-        <v>326</v>
-      </c>
-      <c r="I12" s="73" t="s">
-        <v>344</v>
-      </c>
-      <c r="J12" s="47">
-        <v>43156</v>
-      </c>
-      <c r="K12" s="31" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="G13" s="4"/>
     </row>
   </sheetData>
@@ -5233,1310 +5198,1310 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K160" sqref="K160"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="18"/>
     <col min="2" max="2" width="50.5703125" style="15" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="36" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34">
+    <row r="2" spans="1:2" ht="15" customHeight="1">
+      <c r="A2" s="32">
         <v>627185</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="52" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34">
+    <row r="3" spans="1:2" ht="15" customHeight="1">
+      <c r="A3" s="32">
         <v>627186</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="52" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34">
+    <row r="4" spans="1:2" ht="15" customHeight="1">
+      <c r="A4" s="32">
         <v>627187</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="52" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34">
+    <row r="5" spans="1:2" ht="15" customHeight="1">
+      <c r="A5" s="32">
         <v>627188</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="52" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34">
+    <row r="6" spans="1:2" ht="15" customHeight="1">
+      <c r="A6" s="32">
         <v>627189</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="52" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="34">
+    <row r="7" spans="1:2">
+      <c r="A7" s="32">
         <v>627190</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="52" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="34">
+    <row r="8" spans="1:2">
+      <c r="A8" s="32">
         <v>627191</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="52" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="34">
+    <row r="9" spans="1:2">
+      <c r="A9" s="32">
         <v>627192</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="52" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="34">
+    <row r="10" spans="1:2">
+      <c r="A10" s="32">
         <v>627193</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="52" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="34">
+    <row r="11" spans="1:2">
+      <c r="A11" s="32">
         <v>627194</v>
       </c>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="52" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="34">
+    <row r="12" spans="1:2">
+      <c r="A12" s="32">
         <v>627195</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="52" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="34">
+    <row r="13" spans="1:2">
+      <c r="A13" s="32">
         <v>627196</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="52" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="34">
+    <row r="14" spans="1:2">
+      <c r="A14" s="32">
         <v>627197</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="52" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="34">
+    <row r="15" spans="1:2">
+      <c r="A15" s="32">
         <v>627198</v>
       </c>
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="52" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="34">
+    <row r="16" spans="1:2">
+      <c r="A16" s="32">
         <v>627199</v>
       </c>
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="52" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="34">
+    <row r="17" spans="1:2">
+      <c r="A17" s="32">
         <v>627200</v>
       </c>
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="52" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="34">
+    <row r="18" spans="1:2">
+      <c r="A18" s="32">
         <v>627201</v>
       </c>
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="52" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="34">
+    <row r="19" spans="1:2">
+      <c r="A19" s="32">
         <v>627202</v>
       </c>
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="52" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="34">
+    <row r="20" spans="1:2">
+      <c r="A20" s="32">
         <v>627203</v>
       </c>
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="52" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="34">
+    <row r="21" spans="1:2">
+      <c r="A21" s="32">
         <v>627204</v>
       </c>
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="52" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="34">
+    <row r="22" spans="1:2">
+      <c r="A22" s="32">
         <v>627205</v>
       </c>
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="52" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="34">
+    <row r="23" spans="1:2">
+      <c r="A23" s="32">
         <v>627206</v>
       </c>
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="52" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="34">
+    <row r="24" spans="1:2">
+      <c r="A24" s="32">
         <v>627207</v>
       </c>
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="52" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="34">
+    <row r="25" spans="1:2">
+      <c r="A25" s="32">
         <v>627336</v>
       </c>
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="52" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="34">
+    <row r="26" spans="1:2">
+      <c r="A26" s="32">
         <v>627337</v>
       </c>
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="52" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="34">
+    <row r="27" spans="1:2">
+      <c r="A27" s="32">
         <v>627338</v>
       </c>
-      <c r="B27" s="54" t="s">
+      <c r="B27" s="52" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="34">
+    <row r="28" spans="1:2">
+      <c r="A28" s="32">
         <v>627339</v>
       </c>
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="52" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="34">
+    <row r="29" spans="1:2">
+      <c r="A29" s="32">
         <v>627340</v>
       </c>
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="52" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="34">
+    <row r="30" spans="1:2">
+      <c r="A30" s="32">
         <v>627341</v>
       </c>
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="52" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="34">
+    <row r="31" spans="1:2">
+      <c r="A31" s="32">
         <v>627342</v>
       </c>
-      <c r="B31" s="54" t="s">
+      <c r="B31" s="52" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="34">
+    <row r="32" spans="1:2">
+      <c r="A32" s="32">
         <v>627343</v>
       </c>
-      <c r="B32" s="54" t="s">
+      <c r="B32" s="52" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="34">
+    <row r="33" spans="1:2">
+      <c r="A33" s="32">
         <v>627344</v>
       </c>
-      <c r="B33" s="54" t="s">
+      <c r="B33" s="52" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="34">
+    <row r="34" spans="1:2">
+      <c r="A34" s="32">
         <v>627345</v>
       </c>
-      <c r="B34" s="54" t="s">
+      <c r="B34" s="52" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="34">
+    <row r="35" spans="1:2">
+      <c r="A35" s="32">
         <v>627346</v>
       </c>
-      <c r="B35" s="54" t="s">
+      <c r="B35" s="52" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="34">
+    <row r="36" spans="1:2">
+      <c r="A36" s="32">
         <v>627347</v>
       </c>
-      <c r="B36" s="54" t="s">
+      <c r="B36" s="52" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="34">
+    <row r="37" spans="1:2">
+      <c r="A37" s="32">
         <v>627348</v>
       </c>
-      <c r="B37" s="54" t="s">
+      <c r="B37" s="52" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="34">
+    <row r="38" spans="1:2">
+      <c r="A38" s="32">
         <v>627349</v>
       </c>
-      <c r="B38" s="54" t="s">
+      <c r="B38" s="52" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="34">
+    <row r="39" spans="1:2">
+      <c r="A39" s="32">
         <v>627350</v>
       </c>
-      <c r="B39" s="54" t="s">
+      <c r="B39" s="52" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="34">
+    <row r="40" spans="1:2">
+      <c r="A40" s="32">
         <v>627351</v>
       </c>
-      <c r="B40" s="54" t="s">
+      <c r="B40" s="52" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="34">
+    <row r="41" spans="1:2">
+      <c r="A41" s="32">
         <v>627352</v>
       </c>
-      <c r="B41" s="54" t="s">
+      <c r="B41" s="52" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="34">
+    <row r="42" spans="1:2">
+      <c r="A42" s="32">
         <v>627353</v>
       </c>
-      <c r="B42" s="54" t="s">
+      <c r="B42" s="52" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="34">
+    <row r="43" spans="1:2">
+      <c r="A43" s="32">
         <v>627354</v>
       </c>
-      <c r="B43" s="54" t="s">
+      <c r="B43" s="52" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="34">
+    <row r="44" spans="1:2">
+      <c r="A44" s="32">
         <v>627355</v>
       </c>
-      <c r="B44" s="54" t="s">
+      <c r="B44" s="52" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="34">
+    <row r="45" spans="1:2">
+      <c r="A45" s="32">
         <v>627356</v>
       </c>
-      <c r="B45" s="54" t="s">
+      <c r="B45" s="52" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="34">
+    <row r="46" spans="1:2">
+      <c r="A46" s="32">
         <v>627357</v>
       </c>
-      <c r="B46" s="54" t="s">
+      <c r="B46" s="52" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="34">
+    <row r="47" spans="1:2">
+      <c r="A47" s="32">
         <v>627358</v>
       </c>
-      <c r="B47" s="54" t="s">
+      <c r="B47" s="52" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="34">
+    <row r="48" spans="1:2">
+      <c r="A48" s="32">
         <v>627359</v>
       </c>
-      <c r="B48" s="54" t="s">
+      <c r="B48" s="52" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="34">
+    <row r="49" spans="1:2">
+      <c r="A49" s="32">
         <v>627360</v>
       </c>
-      <c r="B49" s="54" t="s">
+      <c r="B49" s="52" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="34">
+    <row r="50" spans="1:2">
+      <c r="A50" s="32">
         <v>627361</v>
       </c>
-      <c r="B50" s="54" t="s">
+      <c r="B50" s="52" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="34">
+    <row r="51" spans="1:2">
+      <c r="A51" s="32">
         <v>627362</v>
       </c>
-      <c r="B51" s="54" t="s">
+      <c r="B51" s="52" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="34">
+    <row r="52" spans="1:2">
+      <c r="A52" s="32">
         <v>627409</v>
       </c>
-      <c r="B52" s="56" t="s">
+      <c r="B52" s="54" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="32">
+        <v>627410</v>
+      </c>
+      <c r="B53" s="55" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="32">
+        <v>627411</v>
+      </c>
+      <c r="B54" s="54" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="34">
-        <v>627410</v>
-      </c>
-      <c r="B53" s="57" t="s">
+    <row r="55" spans="1:2">
+      <c r="A55" s="32">
+        <v>627412</v>
+      </c>
+      <c r="B55" s="55" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="34">
-        <v>627411</v>
-      </c>
-      <c r="B54" s="56" t="s">
+    <row r="56" spans="1:2">
+      <c r="A56" s="32">
+        <v>627413</v>
+      </c>
+      <c r="B56" s="54" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="34">
-        <v>627412</v>
-      </c>
-      <c r="B55" s="57" t="s">
+    <row r="57" spans="1:2">
+      <c r="A57" s="32">
+        <v>627414</v>
+      </c>
+      <c r="B57" s="54" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="34">
-        <v>627413</v>
-      </c>
-      <c r="B56" s="56" t="s">
+    <row r="58" spans="1:2">
+      <c r="A58" s="32">
+        <v>627415</v>
+      </c>
+      <c r="B58" s="54" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="34">
-        <v>627414</v>
-      </c>
-      <c r="B57" s="56" t="s">
+    <row r="59" spans="1:2">
+      <c r="A59" s="32">
+        <v>627416</v>
+      </c>
+      <c r="B59" s="54" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="34">
-        <v>627415</v>
-      </c>
-      <c r="B58" s="56" t="s">
+    <row r="60" spans="1:2">
+      <c r="A60" s="32">
+        <v>627417</v>
+      </c>
+      <c r="B60" s="54" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="34">
-        <v>627416</v>
-      </c>
-      <c r="B59" s="56" t="s">
+    <row r="61" spans="1:2">
+      <c r="A61" s="32">
+        <v>627418</v>
+      </c>
+      <c r="B61" s="54" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="34">
-        <v>627417</v>
-      </c>
-      <c r="B60" s="56" t="s">
+    <row r="62" spans="1:2">
+      <c r="A62" s="32">
+        <v>627419</v>
+      </c>
+      <c r="B62" s="54" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="34">
-        <v>627418</v>
-      </c>
-      <c r="B61" s="56" t="s">
+    <row r="63" spans="1:2">
+      <c r="A63" s="32">
+        <v>627420</v>
+      </c>
+      <c r="B63" s="55" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="34">
-        <v>627419</v>
-      </c>
-      <c r="B62" s="56" t="s">
+    <row r="64" spans="1:2">
+      <c r="A64" s="32">
+        <v>627421</v>
+      </c>
+      <c r="B64" s="54" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="34">
-        <v>627420</v>
-      </c>
-      <c r="B63" s="57" t="s">
+    <row r="65" spans="1:2">
+      <c r="A65" s="32">
+        <v>627422</v>
+      </c>
+      <c r="B65" s="55" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="34">
-        <v>627421</v>
-      </c>
-      <c r="B64" s="56" t="s">
+    <row r="66" spans="1:2">
+      <c r="A66" s="32">
+        <v>627423</v>
+      </c>
+      <c r="B66" s="54" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="34">
-        <v>627422</v>
-      </c>
-      <c r="B65" s="57" t="s">
+    <row r="67" spans="1:2">
+      <c r="A67" s="32">
+        <v>627424</v>
+      </c>
+      <c r="B67" s="54" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="34">
-        <v>627423</v>
-      </c>
-      <c r="B66" s="56" t="s">
+    <row r="68" spans="1:2">
+      <c r="A68" s="32">
+        <v>627425</v>
+      </c>
+      <c r="B68" s="54" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="34">
-        <v>627424</v>
-      </c>
-      <c r="B67" s="56" t="s">
+    <row r="69" spans="1:2" ht="15" customHeight="1">
+      <c r="A69" s="32">
+        <v>627426</v>
+      </c>
+      <c r="B69" s="54" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="34">
-        <v>627425</v>
-      </c>
-      <c r="B68" s="56" t="s">
+    <row r="70" spans="1:2" ht="15" customHeight="1">
+      <c r="A70" s="32">
+        <v>627427</v>
+      </c>
+      <c r="B70" s="55" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="34">
-        <v>627426</v>
-      </c>
-      <c r="B69" s="56" t="s">
+    <row r="71" spans="1:2" ht="15" customHeight="1">
+      <c r="A71" s="32">
+        <v>627428</v>
+      </c>
+      <c r="B71" s="54" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="34">
-        <v>627427</v>
-      </c>
-      <c r="B70" s="57" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="34">
-        <v>627428</v>
-      </c>
-      <c r="B71" s="56" t="s">
+    <row r="72" spans="1:2" ht="15" customHeight="1">
+      <c r="A72" s="32">
+        <v>627429</v>
+      </c>
+      <c r="B72" s="54" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="34">
-        <v>627429</v>
-      </c>
-      <c r="B72" s="56" t="s">
+    <row r="73" spans="1:2" ht="15" customHeight="1">
+      <c r="A73" s="32">
+        <v>627430</v>
+      </c>
+      <c r="B73" s="54" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15" customHeight="1">
+      <c r="A74" s="32">
+        <v>627431</v>
+      </c>
+      <c r="B74" s="54" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="34">
-        <v>627430</v>
-      </c>
-      <c r="B73" s="56" t="s">
+    <row r="75" spans="1:2" ht="15" customHeight="1">
+      <c r="A75" s="32">
+        <v>627432</v>
+      </c>
+      <c r="B75" s="54" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="34">
-        <v>627431</v>
-      </c>
-      <c r="B74" s="56" t="s">
+    <row r="76" spans="1:2" ht="15" customHeight="1">
+      <c r="A76" s="32">
+        <v>627433</v>
+      </c>
+      <c r="B76" s="54" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="34">
-        <v>627432</v>
-      </c>
-      <c r="B75" s="56" t="s">
+    <row r="77" spans="1:2" ht="15" customHeight="1">
+      <c r="A77" s="32">
+        <v>627434</v>
+      </c>
+      <c r="B77" s="54" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15" customHeight="1">
+      <c r="A78" s="32">
+        <v>627435</v>
+      </c>
+      <c r="B78" s="54" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="34">
-        <v>627433</v>
-      </c>
-      <c r="B76" s="56" t="s">
+    <row r="79" spans="1:2" ht="15" customHeight="1">
+      <c r="A79" s="32">
+        <v>627436</v>
+      </c>
+      <c r="B79" s="54" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="34">
-        <v>627434</v>
-      </c>
-      <c r="B77" s="56" t="s">
+    <row r="80" spans="1:2">
+      <c r="A80" s="32">
+        <v>627437</v>
+      </c>
+      <c r="B80" s="54" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="32">
+        <v>627438</v>
+      </c>
+      <c r="B81" s="54" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="32">
+        <v>627439</v>
+      </c>
+      <c r="B82" s="54" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="32">
+        <v>627440</v>
+      </c>
+      <c r="B83" s="54" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="32">
+        <v>627441</v>
+      </c>
+      <c r="B84" s="54" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="32">
+        <v>627442</v>
+      </c>
+      <c r="B85" s="54" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="32">
+        <v>627443</v>
+      </c>
+      <c r="B86" s="54" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="32">
+        <v>627444</v>
+      </c>
+      <c r="B87" s="54" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="32">
+        <v>627445</v>
+      </c>
+      <c r="B88" s="54" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="32">
+        <v>627446</v>
+      </c>
+      <c r="B89" s="54" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="32">
+        <v>627447</v>
+      </c>
+      <c r="B90" s="54" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="32">
+        <v>627685</v>
+      </c>
+      <c r="B91" s="54" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="32">
+        <v>627686</v>
+      </c>
+      <c r="B92" s="54" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="32">
+        <v>627687</v>
+      </c>
+      <c r="B93" s="54" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="32">
+        <v>627688</v>
+      </c>
+      <c r="B94" s="54" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="32">
+        <v>627689</v>
+      </c>
+      <c r="B95" s="54" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="32">
+        <v>627690</v>
+      </c>
+      <c r="B96" s="54" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="32">
+        <v>627810</v>
+      </c>
+      <c r="B97" s="56" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="32">
+        <v>627811</v>
+      </c>
+      <c r="B98" s="54" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="32">
+        <v>627812</v>
+      </c>
+      <c r="B99" s="56" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="32">
+        <v>627813</v>
+      </c>
+      <c r="B100" s="54" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="32">
+        <v>627814</v>
+      </c>
+      <c r="B101" s="54" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="32">
+        <v>627815</v>
+      </c>
+      <c r="B102" s="54" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="32">
+        <v>627816</v>
+      </c>
+      <c r="B103" s="54" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="32">
+        <v>627817</v>
+      </c>
+      <c r="B104" s="54" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="32">
+        <v>627818</v>
+      </c>
+      <c r="B105" s="54" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="32">
+        <v>627819</v>
+      </c>
+      <c r="B106" s="54" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="32">
+        <v>627820</v>
+      </c>
+      <c r="B107" s="54" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="32">
+        <v>627821</v>
+      </c>
+      <c r="B108" s="54" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="32">
+        <v>627822</v>
+      </c>
+      <c r="B109" s="54" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="32">
+        <v>627823</v>
+      </c>
+      <c r="B110" s="54" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="32">
+        <v>627824</v>
+      </c>
+      <c r="B111" s="56" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="32">
+        <v>627825</v>
+      </c>
+      <c r="B112" s="54" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="32">
+        <v>627837</v>
+      </c>
+      <c r="B113" s="54" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="32">
+        <v>627838</v>
+      </c>
+      <c r="B114" s="54" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="32">
+        <v>627839</v>
+      </c>
+      <c r="B115" s="54" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="32">
+        <v>627840</v>
+      </c>
+      <c r="B116" s="54" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="32">
+        <v>627841</v>
+      </c>
+      <c r="B117" s="54" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="32">
+        <v>627842</v>
+      </c>
+      <c r="B118" s="54" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="32">
+        <v>627843</v>
+      </c>
+      <c r="B119" s="54" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="32">
+        <v>627844</v>
+      </c>
+      <c r="B120" s="54" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="32">
+        <v>627845</v>
+      </c>
+      <c r="B121" s="54" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="32">
+        <v>627846</v>
+      </c>
+      <c r="B122" s="54" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="32">
+        <v>627847</v>
+      </c>
+      <c r="B123" s="54" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="32">
+        <v>627848</v>
+      </c>
+      <c r="B124" s="54" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="32">
+        <v>627900</v>
+      </c>
+      <c r="B125" s="54" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="32">
+        <v>627901</v>
+      </c>
+      <c r="B126" s="54" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="32">
+        <v>627902</v>
+      </c>
+      <c r="B127" s="54" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="32">
+        <v>627903</v>
+      </c>
+      <c r="B128" s="54" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="32">
+        <v>627904</v>
+      </c>
+      <c r="B129" s="54" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="34">
-        <v>627435</v>
-      </c>
-      <c r="B78" s="56" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="34">
-        <v>627436</v>
-      </c>
-      <c r="B79" s="56" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="34">
-        <v>627437</v>
-      </c>
-      <c r="B80" s="56" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="34">
-        <v>627438</v>
-      </c>
-      <c r="B81" s="56" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="34">
-        <v>627439</v>
-      </c>
-      <c r="B82" s="56" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="34">
-        <v>627440</v>
-      </c>
-      <c r="B83" s="56" t="s">
+    <row r="130" spans="1:2">
+      <c r="A130" s="32">
+        <v>627905</v>
+      </c>
+      <c r="B130" s="54" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="32">
+        <v>627906</v>
+      </c>
+      <c r="B131" s="54" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="32">
+        <v>627907</v>
+      </c>
+      <c r="B132" s="54" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="32">
+        <v>627908</v>
+      </c>
+      <c r="B133" s="54" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="32">
+        <v>627909</v>
+      </c>
+      <c r="B134" s="54" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="32">
+        <v>627910</v>
+      </c>
+      <c r="B135" s="54" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="34">
-        <v>627441</v>
-      </c>
-      <c r="B84" s="56" t="s">
+    <row r="136" spans="1:2">
+      <c r="A136" s="32">
+        <v>627911</v>
+      </c>
+      <c r="B136" s="54" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="34">
-        <v>627442</v>
-      </c>
-      <c r="B85" s="56" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="34">
-        <v>627443</v>
-      </c>
-      <c r="B86" s="56" t="s">
+    <row r="137" spans="1:2">
+      <c r="A137" s="32">
+        <v>627912</v>
+      </c>
+      <c r="B137" s="54" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="34">
-        <v>627444</v>
-      </c>
-      <c r="B87" s="56" t="s">
+    <row r="138" spans="1:2">
+      <c r="A138" s="32">
+        <v>627913</v>
+      </c>
+      <c r="B138" s="54" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="32">
+        <v>628172</v>
+      </c>
+      <c r="B139" s="33" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="32">
+        <v>628173</v>
+      </c>
+      <c r="B140" s="33" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="32">
+        <v>628174</v>
+      </c>
+      <c r="B141" s="33" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="32">
+        <v>628175</v>
+      </c>
+      <c r="B142" s="33" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="32">
+        <v>628176</v>
+      </c>
+      <c r="B143" s="33" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="34">
-        <v>627445</v>
-      </c>
-      <c r="B88" s="56" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="34">
-        <v>627446</v>
-      </c>
-      <c r="B89" s="56" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="34">
-        <v>627447</v>
-      </c>
-      <c r="B90" s="56" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="34">
-        <v>627685</v>
-      </c>
-      <c r="B91" s="56" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="34">
-        <v>627686</v>
-      </c>
-      <c r="B92" s="56" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="34">
-        <v>627687</v>
-      </c>
-      <c r="B93" s="56" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="34">
-        <v>627688</v>
-      </c>
-      <c r="B94" s="56" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="34">
-        <v>627689</v>
-      </c>
-      <c r="B95" s="56" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="34">
-        <v>627690</v>
-      </c>
-      <c r="B96" s="56" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="34">
-        <v>627810</v>
-      </c>
-      <c r="B97" s="58" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="34">
-        <v>627811</v>
-      </c>
-      <c r="B98" s="56" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="34">
-        <v>627812</v>
-      </c>
-      <c r="B99" s="58" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="34">
-        <v>627813</v>
-      </c>
-      <c r="B100" s="56" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="34">
-        <v>627814</v>
-      </c>
-      <c r="B101" s="56" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="34">
-        <v>627815</v>
-      </c>
-      <c r="B102" s="56" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="34">
-        <v>627816</v>
-      </c>
-      <c r="B103" s="56" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="34">
-        <v>627817</v>
-      </c>
-      <c r="B104" s="56" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="34">
-        <v>627818</v>
-      </c>
-      <c r="B105" s="56" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="34">
-        <v>627819</v>
-      </c>
-      <c r="B106" s="56" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="34">
-        <v>627820</v>
-      </c>
-      <c r="B107" s="56" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="34">
-        <v>627821</v>
-      </c>
-      <c r="B108" s="56" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="34">
-        <v>627822</v>
-      </c>
-      <c r="B109" s="56" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="34">
-        <v>627823</v>
-      </c>
-      <c r="B110" s="56" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="34">
-        <v>627824</v>
-      </c>
-      <c r="B111" s="58" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="34">
-        <v>627825</v>
-      </c>
-      <c r="B112" s="56" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="34">
-        <v>627837</v>
-      </c>
-      <c r="B113" s="56" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="34">
-        <v>627838</v>
-      </c>
-      <c r="B114" s="56" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="34">
-        <v>627839</v>
-      </c>
-      <c r="B115" s="56" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="34">
-        <v>627840</v>
-      </c>
-      <c r="B116" s="56" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="34">
-        <v>627841</v>
-      </c>
-      <c r="B117" s="56" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="34">
-        <v>627842</v>
-      </c>
-      <c r="B118" s="56" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="34">
-        <v>627843</v>
-      </c>
-      <c r="B119" s="56" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="34">
-        <v>627844</v>
-      </c>
-      <c r="B120" s="56" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="34">
-        <v>627845</v>
-      </c>
-      <c r="B121" s="56" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="34">
-        <v>627846</v>
-      </c>
-      <c r="B122" s="56" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="34">
-        <v>627847</v>
-      </c>
-      <c r="B123" s="56" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="34">
-        <v>627848</v>
-      </c>
-      <c r="B124" s="56" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="34">
-        <v>627900</v>
-      </c>
-      <c r="B125" s="56" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="34">
-        <v>627901</v>
-      </c>
-      <c r="B126" s="56" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="34">
-        <v>627902</v>
-      </c>
-      <c r="B127" s="56" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="34">
-        <v>627903</v>
-      </c>
-      <c r="B128" s="56" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="34">
-        <v>627904</v>
-      </c>
-      <c r="B129" s="56" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="34">
-        <v>627905</v>
-      </c>
-      <c r="B130" s="56" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="34">
-        <v>627906</v>
-      </c>
-      <c r="B131" s="56" t="s">
+    <row r="144" spans="1:2">
+      <c r="A144" s="32">
+        <v>628177</v>
+      </c>
+      <c r="B144" s="33" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="32">
+        <v>628178</v>
+      </c>
+      <c r="B145" s="33" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="32">
+        <v>628237</v>
+      </c>
+      <c r="B146" s="53" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="34">
-        <v>627907</v>
-      </c>
-      <c r="B132" s="56" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="34">
-        <v>627908</v>
-      </c>
-      <c r="B133" s="56" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="34">
-        <v>627909</v>
-      </c>
-      <c r="B134" s="56" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="34">
-        <v>627910</v>
-      </c>
-      <c r="B135" s="56" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="34">
-        <v>627911</v>
-      </c>
-      <c r="B136" s="56" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="34">
-        <v>627912</v>
-      </c>
-      <c r="B137" s="56" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="34">
-        <v>627913</v>
-      </c>
-      <c r="B138" s="56" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="34">
-        <v>628172</v>
-      </c>
-      <c r="B139" s="35" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="34">
-        <v>628173</v>
-      </c>
-      <c r="B140" s="35" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="34">
-        <v>628174</v>
-      </c>
-      <c r="B141" s="35" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="34">
-        <v>628175</v>
-      </c>
-      <c r="B142" s="35" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="34">
-        <v>628176</v>
-      </c>
-      <c r="B143" s="35" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="34">
-        <v>628177</v>
-      </c>
-      <c r="B144" s="35" t="s">
+    <row r="147" spans="1:2">
+      <c r="A147" s="32">
+        <v>628238</v>
+      </c>
+      <c r="B147" s="53" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="32">
+        <v>628239</v>
+      </c>
+      <c r="B148" s="53" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="32">
+        <v>628240</v>
+      </c>
+      <c r="B149" s="53" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="32">
+        <v>628241</v>
+      </c>
+      <c r="B150" s="53" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="32">
+        <v>628242</v>
+      </c>
+      <c r="B151" s="53" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="34">
-        <v>628178</v>
-      </c>
-      <c r="B145" s="35" t="s">
+    <row r="152" spans="1:2">
+      <c r="A152" s="32">
+        <v>628243</v>
+      </c>
+      <c r="B152" s="53" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="32">
+        <v>628244</v>
+      </c>
+      <c r="B153" s="53" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="32">
+        <v>628245</v>
+      </c>
+      <c r="B154" s="53" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="32">
+        <v>628246</v>
+      </c>
+      <c r="B155" s="53" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="32">
+        <v>628247</v>
+      </c>
+      <c r="B156" s="53" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="34">
-        <v>628237</v>
-      </c>
-      <c r="B146" s="55" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="34">
-        <v>628238</v>
-      </c>
-      <c r="B147" s="55" t="s">
+    <row r="157" spans="1:2">
+      <c r="A157" s="32">
+        <v>628248</v>
+      </c>
+      <c r="B157" s="53" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="32">
+        <v>628249</v>
+      </c>
+      <c r="B158" s="53" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="32">
+        <v>628250</v>
+      </c>
+      <c r="B159" s="53" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="34">
-        <v>628239</v>
-      </c>
-      <c r="B148" s="55" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="34">
-        <v>628240</v>
-      </c>
-      <c r="B149" s="55" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="34">
-        <v>628241</v>
-      </c>
-      <c r="B150" s="55" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="34">
-        <v>628242</v>
-      </c>
-      <c r="B151" s="55" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="34">
-        <v>628243</v>
-      </c>
-      <c r="B152" s="55" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="34">
-        <v>628244</v>
-      </c>
-      <c r="B153" s="55" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="34">
-        <v>628245</v>
-      </c>
-      <c r="B154" s="55" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="34">
-        <v>628246</v>
-      </c>
-      <c r="B155" s="55" t="s">
+    <row r="160" spans="1:2">
+      <c r="A160" s="32">
+        <v>628251</v>
+      </c>
+      <c r="B160" s="53" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="32">
+        <v>628252</v>
+      </c>
+      <c r="B161" s="53" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="34">
-        <v>628247</v>
-      </c>
-      <c r="B156" s="55" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="34">
-        <v>628248</v>
-      </c>
-      <c r="B157" s="55" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="34">
-        <v>628249</v>
-      </c>
-      <c r="B158" s="55" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="34">
-        <v>628250</v>
-      </c>
-      <c r="B159" s="55" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="34">
-        <v>628251</v>
-      </c>
-      <c r="B160" s="55" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="34">
-        <v>628252</v>
-      </c>
-      <c r="B161" s="55" t="s">
-        <v>327</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="B147:B161">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B147:B161">
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
